--- a/Data/Boxes.xlsx
+++ b/Data/Boxes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\washup22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120B6801-7451-4BE5-9690-E945AC4A9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E149D-5202-4F97-A6A7-089FAFE85F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D7240DD-1217-48F3-B9CC-6724F1C68342}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="20">
   <si>
     <t>Box</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>DWF</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>ABE</t>
   </si>
 </sst>
 </file>
@@ -431,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AB94FD-C2B2-4674-B109-C2E2C6E9A48C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +888,356 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>114</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>109</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>289</v>
+      </c>
+      <c r="D44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>299</v>
+      </c>
+      <c r="D45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>176</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>97</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>306</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>258</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
